--- a/document/SWP391-Group2-Tracking.xlsx
+++ b/document/SWP391-Group2-Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D8D5E5-4720-4FBA-BB0D-C6634987575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F70483-64E2-48BD-83E1-FDB65982B199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
+    <workbookView xWindow="4155" yWindow="2715" windowWidth="21600" windowHeight="12765" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
   <sheets>
     <sheet name="Iter1" sheetId="16" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -60,9 +60,6 @@
     <t>User Register</t>
   </si>
   <si>
-    <t>Public</t>
-  </si>
-  <si>
     <t>Blog Details</t>
   </si>
   <si>
@@ -93,12 +90,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Complex</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
     <t>This is scrren when user want to access the important part of the website have to do. User access with their created account or can go ahead and create a new one</t>
   </si>
   <si>
@@ -114,30 +105,12 @@
     <t>Blog deital is the detailed part of one blog, Display any thing about the product, User can access this and see more about the product</t>
   </si>
   <si>
-    <t>This is the screen when user access the website the first time, can be aceess with or without and account. Display the header, footer of the website, and the body descript about promotions, category, featured product and brands of the store products</t>
-  </si>
-  <si>
     <t>This is the backend part to manage user acess between, user, seller, marketing and admin. All have different acess, different use to the website</t>
   </si>
   <si>
     <t>User Profile</t>
   </si>
   <si>
-    <t>Desgin Homepage</t>
-  </si>
-  <si>
-    <t>Desgin Dashboard</t>
-  </si>
-  <si>
-    <t>Permission Homepage</t>
-  </si>
-  <si>
-    <t>Permission Dashboard</t>
-  </si>
-  <si>
-    <t>Account management</t>
-  </si>
-  <si>
     <t>HungTHHE140042</t>
   </si>
   <si>
@@ -147,18 +120,9 @@
     <t>HungTHHE140044</t>
   </si>
   <si>
-    <t>HungDQHE140063</t>
-  </si>
-  <si>
-    <t>HungDQHE140064</t>
-  </si>
-  <si>
     <t>DinhNLHE140992</t>
   </si>
   <si>
-    <t>DinhNLHE140993</t>
-  </si>
-  <si>
     <t>LongNTHE140955</t>
   </si>
   <si>
@@ -171,26 +135,70 @@
     <t>SonTNSE04223</t>
   </si>
   <si>
-    <t>Role permission can access to features at Homepage</t>
-  </si>
-  <si>
-    <t>Role permission can access to features at Dashboard</t>
-  </si>
-  <si>
-    <t>This is management screen. There is CRUD account, product, blog, faq,…</t>
-  </si>
-  <si>
-    <t>This function is in dashboard. There is List, Create, Update, Delete accounts in systems</t>
-  </si>
-  <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>This is screen to user change their password</t>
+  </si>
+  <si>
+    <t>Products List</t>
+  </si>
+  <si>
+    <t>Product Details</t>
+  </si>
+  <si>
+    <t>LongNTHE140954</t>
+  </si>
+  <si>
+    <t>Show the paginated list of products (include products' id, thumbnail, title, category, list price, sale price, featured, and status information):
+- The user can filter the product by category, status or search by title, brief info
+- Sortable by title, category, list price, sale price, featured, or status
+- From each product, the user can choose to hide, show, view, edit it
+- The page also have the button/link that allows the user to add new product</t>
+  </si>
+  <si>
+    <t>Show detailed product information (thumbnail, category, title, brief information, attached images, description, quantity, list price, sale price, flag to turn the featurning on/off, status), from that allow the user to input, view or edit them</t>
+  </si>
+  <si>
+    <t>Users List</t>
+  </si>
+  <si>
+    <t>User Details</t>
+  </si>
+  <si>
+    <t>SonTNSE04224</t>
+  </si>
+  <si>
+    <t>HungDQHE140062</t>
+  </si>
+  <si>
+    <t>HungDQHE140061</t>
+  </si>
+  <si>
+    <t>Show the paginated list of registered users (include users' id, full name, gender, email, mobile, role, status):
+- The admin can filter the users by gender, role, status
+- Allow the admin to seach users by full name, email, mobile
+- The list is sortable by id, fullname, gender, email, mobile, role, status
+- From each user, the admin can choose to view or edit it
+- The page also have the button/link that allows the admin to add new user</t>
+  </si>
+  <si>
+    <t>Show detailed user information (avatar, full name, gender, email, mobile, role, address, status), from that allow the user to add new, view or edit user information
+- After adding, new generated login password would be email to the new user
+- The admin can only edit/update the role and status of the user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +258,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -289,13 +304,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -324,27 +342,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{F04C5557-B140-7E44-88B8-CCF47A25E01F}"/>
+    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{27EFF7E6-8831-4D6C-8B72-EFC7B46DA9BD}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{35FFA866-89B4-C842-9D7F-D2872C3F33DE}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{F1663114-C0AD-48DF-ACF8-45761FCDD50B}"/>
     <cellStyle name="Normal 5" xfId="1" xr:uid="{962DD808-D234-E447-A3DA-EC3FA1D4FD3F}"/>
+    <cellStyle name="Percent 2" xfId="5" xr:uid="{F68B6D46-A2EC-4D71-9277-59817FB7E35D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159B6F1B-8C2E-4DA4-A8B8-8D6F32627B58}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,19 +727,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
@@ -724,22 +754,22 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A13" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A14" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -749,16 +779,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -768,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
@@ -777,13 +807,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -793,22 +823,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="8"/>
     </row>
@@ -818,22 +848,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -843,47 +873,44 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -893,22 +920,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="8"/>
     </row>
@@ -918,22 +945,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -943,67 +970,79 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="F14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14" xr:uid="{647CA3C2-5E5A-4C28-8364-BCB865DBEAE6}">
-      <formula1>"Pending, Do, Doing"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G13" xr:uid="{C7D82C6A-B128-48E8-8B9C-7159C41E24B3}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14" xr:uid="{C7D82C6A-B128-48E8-8B9C-7159C41E24B3}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
